--- a/Customer Spending Data.xlsx
+++ b/Customer Spending Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://depauledu-my.sharepoint.com/personal/mstern10_depaul_edu/Documents/BUA 301/Week 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstern10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{5AD7FD20-C3A2-4E85-9CD8-C4C4F38CA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA7407D-E4DA-41A9-B0F6-79C236A3E015}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4323CE-34ED-4625-9E10-51CF5A98D95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
   <si>
     <t>Male</t>
   </si>
@@ -51,10 +51,10 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>.</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Fem</t>
   </si>
 </sst>
 </file>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31088C60-18F5-4F38-BB0F-F917708D9660}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1166,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B186" s="2">
         <v>113.6</v>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="2">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="C193" s="1">
         <v>62</v>
@@ -3238,6 +3238,20 @@
         <v>61</v>
       </c>
       <c r="D201" s="2">
+        <v>159.51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1990</v>
+      </c>
+      <c r="D202" s="2">
         <v>159.51</v>
       </c>
     </row>
